--- a/output/StructureDefinition-claim-senha.xlsx
+++ b/output/StructureDefinition-claim-senha.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-12T22:14:31+00:00</t>
+    <t>2022-01-12T22:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-claim-senha.xlsx
+++ b/output/StructureDefinition-claim-senha.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-12T22:59:26+00:00</t>
+    <t>2022-01-14T02:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
